--- a/Lab3/Q8LOM.xlsx
+++ b/Lab3/Q8LOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lostk\OneDrive\Desktop\Working Directory\Schule\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{179CD1AF-5F8B-4DE7-A794-623DCF7DE9B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD11C11D-BCC9-4F60-8D00-F424F8B53E13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="1725" windowWidth="16440" windowHeight="11385" xr2:uid="{0AD26B3C-5530-4313-9A23-0F8A1CA66D0E}"/>
+    <workbookView xWindow="2955" yWindow="750" windowWidth="16440" windowHeight="11385" xr2:uid="{0AD26B3C-5530-4313-9A23-0F8A1CA66D0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A11" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
